--- a/petstore_archi_enhanced.xlsx
+++ b/petstore_archi_enhanced.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="600" firstSheet="7" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,22 +26,31 @@
     <sheet name="Flows" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="Capabilities" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="ValueStreams" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Glossaire" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Revisions" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -56,12 +64,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -74,14 +97,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -450,7 +476,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -561,7 +587,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -601,7 +627,6 @@
           <t>PCI</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -620,7 +645,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -656,7 +681,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -692,7 +717,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -752,9 +777,6 @@
           <t>Inventory-Service</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -777,9 +799,6 @@
           <t>API Backend</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -802,9 +821,6 @@
           <t>API Backend</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -823,7 +839,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -910,7 +926,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -980,7 +996,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1061,11 +1077,14 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="33.33203125" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1145,7 +1164,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
@@ -1199,7 +1217,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -1253,7 +1270,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -1280,7 +1296,6 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Passerelle de paiement externe</t>
@@ -1303,7 +1318,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -1357,7 +1371,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -1411,7 +1424,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -1465,7 +1477,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -1519,7 +1530,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -1538,11 +1548,6 @@
           <t>Support</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>INTERNE</t>
-        </is>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -1604,7 +1609,6 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Client web final</t>
@@ -1658,7 +1662,6 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>API partenaire</t>
@@ -1712,7 +1715,6 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Monitoring système</t>
@@ -1735,7 +1737,6 @@
           <t>TOPIC</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>0</v>
       </c>
@@ -1762,7 +1763,6 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>Topic événements commandes</t>
@@ -1785,7 +1785,6 @@
           <t>TOPIC</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>0</v>
       </c>
@@ -1812,7 +1811,6 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>Topic événements stock</t>
@@ -1835,7 +1833,6 @@
           <t>DATABASE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>1</v>
       </c>
@@ -1862,7 +1859,6 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>Base utilisateurs</t>
@@ -1885,7 +1881,6 @@
           <t>DATABASE</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>1</v>
       </c>
@@ -1912,7 +1907,6 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>Base produits</t>
@@ -1936,7 +1930,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2016,7 +2010,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2064,7 +2057,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2112,7 +2104,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2420,7 +2411,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2468,7 +2458,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2516,7 +2505,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2555,7 +2543,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2766,7 +2754,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2907,153 +2895,2025 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>StartEvent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EndEvent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capabilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VS-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Commande Client</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>De la découverte produit à la livraison</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Client browse catalog</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Order delivered</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Navigation catalogue,Passage commande,Traitement paiement,Génération facture</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CAP-002,CAP-001,CAP-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VS-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Support Client</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>De la demande à la résolution</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Client requests help</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Issue resolved</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Demande support,Création ticket</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CAP-004,CAP-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VS-003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gestion Stock</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mise à jour et synchronisation stock</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Stock change</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Catalog updated</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mise à jour catalogue,Calcul coût stock</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CAP-001,CAP-005</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>StartEvent</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EndEvent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Steps</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capabilities</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Terme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Categorie</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>References</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VS-001</t>
+          <t>API Gateway</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commande Client</t>
+          <t>Point d'entrée unique pour toutes les requêtes client vers les services backend</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>De la découverte produit à la livraison</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Client browse catalog</t>
+          <t>Gateway API, Passerelle API</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Order delivered</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Navigation catalogue,Passage commande,Traitement paiement,Génération facture</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CAP-002,CAP-001,CAP-003</t>
+          <t>https://docs.aws.amazon.com/apigateway/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VS-002</t>
+          <t>Microservices</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Support Client</t>
+          <t>Architecture distribuée composée de services métier indépendants et faiblement couplés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>De la demande à la résolution</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Client requests help</t>
+          <t>Services autonomes, Microservices</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Issue resolved</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Demande support,Création ticket</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CAP-004,CAP-002</t>
+          <t>https://microservices.io/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VS-003</t>
+          <t>Event-Driven Architecture</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gestion Stock</t>
+          <t>Pattern architectural basé sur la production, détection et consommation d'événements</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mise à jour et synchronisation stock</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stock change</t>
+          <t>EDA, Architecture pilotée par les événements</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Catalog updated</t>
+          <t>https://martinfowler.com/articles/201701-event-driven.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CQRS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Command Query Responsibility Segregation - Séparation des responsabilités lecture/écriture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pattern</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Séparation commande-requête</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://martinfowler.com/bliki/CQRS.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Domain-Driven Design</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Approche de conception logicielle centrée sur le domaine métier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Methodology</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DDD, Conception pilotée par le domaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://domainlanguage.com/ddd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Circuit Breaker</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pattern de tolérance aux pannes qui détecte les défaillances et évite les appels en cascade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pattern</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Disjoncteur, Pattern Circuit Breaker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://martinfowler.com/bliki/CircuitBreaker.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Blue-Green Deployment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Technique de déploiement sans interruption avec deux environnements identiques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DevOps</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Déploiement bleu-vert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://martinfowler.com/bliki/BlueGreenDeployment.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Container</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unité logicielle portable incluant code, runtime et dépendances</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Conteneur, Container Docker</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.docker.com/resources/what-container</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Orchestration</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gestion automatisée du déploiement, de la mise à l'échelle et des opérations de containers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Orchestration de conteneurs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://kubernetes.io/docs/concepts/overview/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Service Mesh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Infrastructure réseau dédiée à la communication sécurisée entre microservices</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Maillage de services</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://istio.io/latest/docs/concepts/what-is-istio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SLA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Service Level Agreement - Accord de niveau de service contractuel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Accord de service</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Service-level_agreement</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SLO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Service Level Objective - Objectif de niveau de service mesurable</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Objectif de service</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://sre.google/sre-book/service-level-objectives/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SLI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Service Level Indicator - Indicateur de performance d'un service</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Indicateur de service</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://sre.google/sre-book/service-level-objectives/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Observability</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Capacité à comprendre l'état interne d'un système via ses outputs externes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Observabilité</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://opentelemetry.io/docs/concepts/observability-primer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tracing</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Suivi des requêtes à travers les systèmes distribués</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Traçage distribué</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://opentelemetry.io/docs/concepts/signals/traces/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PCI-DSS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Payment Card Industry Data Security Standard - Standard de sécurité des données de paiement</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Standard PCI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.pcisecuritystandards.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OAuth 2.0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Framework d'autorisation pour déléguer l'accès à des ressources protégées</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OAuth2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://oauth.net/2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JWT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>JSON Web Token - Standard pour transmettre des informations de manière sécurisée</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jeton Web JSON</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://jwt.io/introduction/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tokenisation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Remplacement des données sensibles par des jetons non-sensibles</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Substitution par jetons</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Tokenization_(data_security)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WAF</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Web Application Firewall - Pare-feu applicatif web</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pare-feu applicatif</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.cloudflare.com/learning/ddos/glossary/web-application-firewall-waf/</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Categorie</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Date_Publication</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Pertinence_Projet</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REF-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Guide d'Architecture d'Entreprise TOGAF 9.2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Framework</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2018-04-01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.opengroup.org/togaf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Framework de référence pour l'architecture d'entreprise</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Architecture globale et gouvernance</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REF-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Microservices Patterns - Chris Richardson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2018-10-01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://microservices.io/book</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Patterns et bonnes pratiques pour les architectures microservices</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Design des microservices PetStore</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REF-003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Building Event-Driven Microservices - Adam Bellemare</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mise à jour catalogue,Calcul coût stock</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CAP-001,CAP-005</t>
+          <t>https://www.oreilly.com/library/view/building-event-driven-microservices/9781492057888/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guide complet pour construire des systèmes événementiels</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Gestion des événements métier</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REF-004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Site Reliability Engineering - Google</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2016-04-01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://sre.google/books/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Méthodes et pratiques pour la fiabilité des systèmes</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Monitoring et observabilité</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REF-005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Designing Data-Intensive Applications - Martin Kleppmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2017-03-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://dataintensive.net/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conception d'applications gérant d'importants volumes de données</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Architecture de données clients</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REF-006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clean Architecture - Robert C. Martin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2017-09-01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://blog.cleancoder.com/uncle-bob/2012/08/13/the-clean-architecture.html</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Principes pour une architecture logicielle propre et maintenable</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Structure du code et modularité</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Recommandé</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REF-007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Domain-Driven Design - Eric Evans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2003-08-01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://domainlanguage.com/ddd/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Approche de conception centrée sur le domaine métier</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Modélisation du domaine PetStore</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REF-008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enterprise Integration Patterns - Gregor Hohpe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2004-10-01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.enterpriseintegrationpatterns.com/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Patterns pour l'intégration de systèmes d'entreprise</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Intégration avec systèmes externes</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Recommandé</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REF-009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PCI DSS Requirements and Security Assessment Procedures</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>v4.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.pcisecuritystandards.org/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Exigences de sécurité pour les données de cartes de paiement</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sécurité des paiements</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Obligatoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REF-010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NIST Cybersecurity Framework</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Framework</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>v1.1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2018-04-01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.nist.gov/cyberframework</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Framework de cybersécurité pour les infrastructures critiques</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Framework de sécurité global</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Recommandé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>REF-011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ISO 27001:2013 - Information Security Management</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2013-10-01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.iso.org/standard/54534.html</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Standard international pour la gestion de la sécurité de l'information</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Conformité sécurité</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Recommandé</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REF-012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GDPR - General Data Protection Regulation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Réglementation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2018-05-25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://gdpr-info.eu/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Règlement européen sur la protection des données personnelles</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Protection des données clients</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Obligatoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REF-013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cloud Security Alliance - Cloud Controls Matrix</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Framework</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>v4.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://cloudsecurityalliance.org/research/cloud-controls-matrix/</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Matrice de contrôles de sécurité pour le cloud computing</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sécurité cloud AWS</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>REF-014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OWASP Top 10 Application Security Risks</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://owasp.org/www-project-top-ten/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Top 10 des risques de sécurité applicative les plus critiques</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sécurité applicative</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Obligatoire</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>REF-015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kubernetes Documentation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>v1.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://kubernetes.io/docs/</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Documentation officielle de la plateforme Kubernetes</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Déploiement et orchestration</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Applicable</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Type_Modification</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Description_Modifications</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Sections_Impactees</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Approbateur</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Impact_Projet</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Actions_Requises</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Création initiale du dossier d'architecture avec vues métier et technique de base</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Toutes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DSI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Baseline initiale pour le projet</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Validation par les parties prenantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Architecte Solution</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Enrichissement</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ajout des diagrammes de capacités et des flux de valeur métier</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vue Métier, Capacités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Enrichissement de la vision métier</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mise à jour des spécifications fonctionnelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sécurité</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Renforcement de la section sécurité avec analyse des risques et conformité PCI-DSS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sécurité, Conformité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Validation des exigences de sécurité</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Audit de sécurité externe</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Refonte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Refonte complète avec nouvelle architecture microservices et approche event-driven</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Architecture Technique, Vues Applicatives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comité Architecture</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Changement majeur d'architecture</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Formation des équipes de développement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Optimisation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Optimisation des performances et ajout des métriques de monitoring</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Infrastructure, Monitoring</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Amélioration des performances</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mise en place du monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Architecte Solution</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Correction des incohérences dans les flux de données et mise à jour de la matrice de traçabilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vue Données, Traçabilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Stabilisation de la documentation</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Test de régression complet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ajout du glossaire, documents de référence et système de versioning</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Glossaire, Références, Révisions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En révision</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Amélioration de la documentation</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Revue par le comité d'architecture</t>
         </is>
       </c>
     </row>
@@ -3074,7 +4934,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3140,7 +5000,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3173,8 +5033,6 @@
           <t>Traitement paiement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3185,8 +5043,6 @@
           <t>Demande support</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3197,88 +5053,62 @@
           <t>Navigation catalogue</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Passage commande</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mise à jour catalogue</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Création ticket</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Génération facture</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>Authentification user</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Calcul coût stock</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Vérification commande</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Notification facturation</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3297,7 +5127,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3333,7 +5163,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3374,7 +5204,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3410,7 +5240,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3451,7 +5281,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/petstore_archi_enhanced.xlsx
+++ b/petstore_archi_enhanced.xlsx
@@ -29,6 +29,7 @@
     <sheet name="Glossaire" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="References" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Revisions" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="PatternsAndPrincipes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -476,50 +477,50 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Context</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ScopeIn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ScopeOut</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Sponsor</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Scope</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Out_of_Scope</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Document_Version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Document_Status</t>
         </is>
@@ -587,25 +588,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Layer</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Service</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -627,6 +628,7 @@
           <t>PCI</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -645,20 +647,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ControlType</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
@@ -681,20 +683,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RACI_Role</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Runbook</t>
         </is>
@@ -717,40 +719,40 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>CRUD</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Sensitivity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>RetentionPeriod</t>
         </is>
@@ -777,6 +779,9 @@
           <t>Inventory-Service</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -799,6 +804,9 @@
           <t>API Backend</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,6 +829,9 @@
           <t>API Backend</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -839,20 +850,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Sensitivity</t>
         </is>
@@ -926,20 +937,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>RetentionPeriod</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>LegalBasis</t>
         </is>
@@ -996,25 +1007,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Steward</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>QualityMetric</t>
         </is>
@@ -1077,72 +1088,69 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col width="33.33203125" customWidth="1" min="9" max="9"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>ClientType</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ShowInDiagram</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Network_Zone</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>BusinessApp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -1164,6 +1172,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
@@ -1217,6 +1226,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -1270,6 +1280,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -1296,6 +1307,7 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Passerelle de paiement externe</t>
@@ -1318,6 +1330,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -1371,6 +1384,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -1424,6 +1438,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -1477,6 +1492,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -1530,6 +1546,7 @@
           <t>APPLICATION</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -1548,6 +1565,7 @@
           <t>Support</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -1609,6 +1627,7 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Client web final</t>
@@ -1662,6 +1681,7 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>API partenaire</t>
@@ -1715,6 +1735,7 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Monitoring système</t>
@@ -1737,6 +1758,7 @@
           <t>TOPIC</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>0</v>
       </c>
@@ -1763,6 +1785,7 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>Topic événements commandes</t>
@@ -1785,6 +1808,7 @@
           <t>TOPIC</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>0</v>
       </c>
@@ -1811,6 +1835,7 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>Topic événements stock</t>
@@ -1833,6 +1858,7 @@
           <t>DATABASE</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>1</v>
       </c>
@@ -1859,6 +1885,7 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>Base utilisateurs</t>
@@ -1881,6 +1908,7 @@
           <t>DATABASE</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>1</v>
       </c>
@@ -1907,6 +1935,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>Base produits</t>
@@ -1924,63 +1953,68 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Outbound</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Inbound</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Protocol</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>FlowType</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AsyncMessage</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Format</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>BusinessProcess</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>ValidationStatus</t>
         </is>
       </c>
     </row>
@@ -2010,6 +2044,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2028,6 +2063,11 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>Navigation catalogue</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>À valider</t>
         </is>
       </c>
     </row>
@@ -2057,6 +2097,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2075,6 +2116,11 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>Traitement paiement</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Validé</t>
         </is>
       </c>
     </row>
@@ -2104,6 +2150,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2122,6 +2169,11 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>Demande support</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>En cours</t>
         </is>
       </c>
     </row>
@@ -2176,6 +2228,11 @@
           <t>Publication commande</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>À valider</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2228,6 +2285,11 @@
           <t>Consommation commande</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>À valider</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2280,6 +2342,11 @@
           <t>Facturation commande</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>À valider</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2332,6 +2399,11 @@
           <t>Publication stock</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>À valider</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2456,11 @@
           <t>Mise à jour catalogue</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>À valider</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2411,6 +2488,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2429,6 +2507,11 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>Authentification user</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Validé</t>
         </is>
       </c>
     </row>
@@ -2458,6 +2541,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2476,6 +2560,11 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>Lecture produits</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>À valider</t>
         </is>
       </c>
     </row>
@@ -2505,6 +2594,7 @@
           <t>SYNC</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2523,6 +2613,11 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>API partenaire</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>À valider</t>
         </is>
       </c>
     </row>
@@ -2543,35 +2638,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
@@ -2754,35 +2849,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Objective</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Business_Domain</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
@@ -2895,40 +2990,40 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>StartEvent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>EndEvent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Capabilities</t>
         </is>
@@ -4554,366 +4649,569 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Création initiale du dossier d'architecture avec vues métier et technique de base</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Toutes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DSI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Baseline initiale pour le projet</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Validation par les parties prenantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Architecte Solution</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Enrichissement</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ajout des diagrammes de capacités et des flux de valeur métier</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vue Métier, Capacités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Enrichissement de la vision métier</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mise à jour des spécifications fonctionnelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sécurité</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Renforcement de la section sécurité avec analyse des risques et conformité PCI-DSS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sécurité, Conformité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Validation des exigences de sécurité</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Audit de sécurité externe</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Refonte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Refonte complète avec nouvelle architecture microservices et approche event-driven</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Architecture Technique, Vues Applicatives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comité Architecture</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Changement majeur d'architecture</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Formation des équipes de développement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Optimisation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Optimisation des performances et ajout des métriques de monitoring</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Infrastructure, Monitoring</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Amélioration des performances</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mise en place du monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Architecte Solution</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Correction</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Correction des incohérences dans les flux de données et mise à jour de la matrice de traçabilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vue Données, Traçabilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Approuvé</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Stabilisation de la documentation</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Test de régression complet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Architecte Enterprise</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ajout du glossaire, documents de référence et système de versioning</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Glossaire, Références, Révisions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En révision</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Amélioration de la documentation</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Revue par le comité d'architecture</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Motif</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Consequences</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>PAT-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>Architecture Microservices</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Architecte Enterprise</t>
+          <t>Besoin de scalabilité indépendante des services#Réduction des risques de déploiement#Équipes autonomes et développement parallèle#Technologies hétérogènes selon les besoins</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Création</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Création initiale du dossier d'architecture avec vues métier et technique de base</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Toutes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>DSI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Baseline initiale pour le projet</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Validation par les parties prenantes</t>
+          <t>Complexité opérationnelle accrue#Gestion des transactions distribuées#Overhead réseau entre services#Besoin d'expertise DevOps avancée</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>PAT-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>API Gateway Pattern</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Architecte Solution</t>
+          <t>Point d'entrée unique pour tous les clients#Centralisation de la sécurité et de l'authentification#Gestion du routage et load balancing#Monitoring centralisé des API</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Enrichissement</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ajout des diagrammes de capacités et des flux de valeur métier</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vue Métier, Capacités</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Product Owner</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Enrichissement de la vision métier</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Mise à jour des spécifications fonctionnelles</t>
+          <t>Point de défaillance unique potentiel#Complexité de configuration#Latence supplémentaire#Besoin de haute disponibilité</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>PAT-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>Event-Driven Architecture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RSSI</t>
+          <t>Découplage fort entre les services#Amélioration de la résilience du système#Support des flux métier complexes#Extensibilité pour nouvelles fonctionnalités</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sécurité</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Renforcement de la section sécurité avec analyse des risques et conformité PCI-DSS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sécurité, Conformité</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>RSSI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Validation des exigences de sécurité</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Audit de sécurité externe</t>
+          <t>Complexité du debugging distribué#Gestion de l'ordre des événements#Besoin d'un système de messaging robuste#Consistance éventuelle à gérer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>PAT-004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>Database per Service</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Architecte Enterprise</t>
+          <t>Isolation des données par service#Éviter les dépendances directes entre services#Optimisation des modèles de données par domaine#Scalabilité indépendante des données</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Refonte</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Refonte complète avec nouvelle architecture microservices et approche event-driven</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Architecture Technique, Vues Applicatives</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Comité Architecture</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Changement majeur d'architecture</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Formation des équipes de développement</t>
+          <t>Complexité des requêtes cross-service#Duplication potentielle des données#Gestion des migrations de schéma#Overhead de maintenance multiple</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>PAT-005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>Circuit Breaker Pattern</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tech Lead</t>
+          <t>Protection contre les défaillances en cascade#Amélioration de la résilience globale#Dégradation gracieuse des fonctionnalités#Monitoring des services défaillants</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Optimisation</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Optimisation des performances et ajout des métriques de monitoring</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Infrastructure, Monitoring</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tech Lead</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Amélioration des performances</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Mise en place du monitoring</t>
+          <t>Logique de fallback à implémenter#Configuration des seuils critiques#Monitoring et alerting nécessaires#Potentiel masquage de problèmes réels</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>PAT-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>CQRS (Command Query Responsibility Segregation)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Architecte Solution</t>
+          <t>Séparation des responsabilités lecture/écriture#Optimisation des performances selon l'usage#Scalabilité différenciée read vs write#Support des modèles de données complexes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Correction</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Correction des incohérences dans les flux de données et mise à jour de la matrice de traçabilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Vue Données, Traçabilité</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Approuvé</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Architecte Enterprise</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Stabilisation de la documentation</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Test de régression complet</t>
+          <t>Complexité accrue du modèle de données#Synchronisation read/write à gérer#Duplication potentielle des données#Expertise technique nécessaire</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>PAT-007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>Saga Pattern pour Transactions Distribuées</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Architecte Enterprise</t>
+          <t>Gestion des transactions distribuées#Consistance éventuelle acceptable#Compensation automatique en cas d'échec#Pas de verrous globaux sur les ressources</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Evolution</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ajout du glossaire, documents de référence et système de versioning</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Glossaire, Références, Révisions</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>En révision</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>En attente</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Amélioration de la documentation</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Revue par le comité d'architecture</t>
+          <t>Implémentation complexe des compensations#Debugging difficile des flux distribués#Gestion des états intermédiaires#Monitoring avancé requis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PAT-008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cache-Aside Pattern</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Amélioration des performances de lecture#Réduction de la charge sur la base de données#Contrôle fin de la logique de cache#Simplicité d'implémentation et maintenance</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gestion de l'invalidation du cache#Données potentiellement obsolètes#Overhead mémoire pour le cache#Logique de cache à maintenir</t>
         </is>
       </c>
     </row>
@@ -4934,20 +5232,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>BudgetEUR</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Milestone</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -5000,25 +5298,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Actors</t>
         </is>
@@ -5033,6 +5331,8 @@
           <t>Traitement paiement</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5043,6 +5343,8 @@
           <t>Demande support</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5053,62 +5355,88 @@
           <t>Navigation catalogue</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Passage commande</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mise à jour catalogue</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Création ticket</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Génération facture</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>Authentification user</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Calcul coût stock</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Vérification commande</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Notification facturation</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5127,20 +5455,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
@@ -5163,25 +5491,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SLI</t>
         </is>
@@ -5204,20 +5532,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Pillar</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -5240,25 +5568,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>RepoURL</t>
         </is>
@@ -5281,20 +5609,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>SourceID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>TargetID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Pattern</t>
         </is>

--- a/petstore_archi_enhanced.xlsx
+++ b/petstore_archi_enhanced.xlsx
@@ -30,6 +30,8 @@
     <sheet name="References" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Revisions" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="PatternsAndPrincipes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Training" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Training_Doc" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -39,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -56,13 +58,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -98,12 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -628,7 +643,6 @@
           <t>PCI</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -779,9 +793,6 @@
           <t>Inventory-Service</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -804,9 +815,6 @@
           <t>API Backend</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -829,9 +837,6 @@
           <t>API Backend</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1172,7 +1177,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
@@ -1226,7 +1230,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>1</v>
       </c>
@@ -1280,7 +1283,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -1307,7 +1309,6 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Passerelle de paiement externe</t>
@@ -1330,7 +1331,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -1384,7 +1384,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>1</v>
       </c>
@@ -1438,7 +1437,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -1492,7 +1490,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -1546,7 +1543,6 @@
           <t>APPLICATION</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="b">
         <v>1</v>
       </c>
@@ -1565,7 +1561,6 @@
           <t>Support</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -1627,7 +1622,6 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Client web final</t>
@@ -1681,7 +1675,6 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>API partenaire</t>
@@ -1735,7 +1728,6 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Monitoring système</t>
@@ -1758,7 +1750,6 @@
           <t>TOPIC</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>0</v>
       </c>
@@ -1785,7 +1776,6 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>Topic événements commandes</t>
@@ -1808,7 +1798,6 @@
           <t>TOPIC</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>0</v>
       </c>
@@ -1835,7 +1824,6 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>Topic événements stock</t>
@@ -1858,7 +1846,6 @@
           <t>DATABASE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>1</v>
       </c>
@@ -1885,7 +1872,6 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>Base utilisateurs</t>
@@ -1908,7 +1894,6 @@
           <t>DATABASE</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>1</v>
       </c>
@@ -1935,7 +1920,6 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>Base produits</t>
@@ -2044,7 +2028,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2097,7 +2080,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2150,7 +2132,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -2488,7 +2469,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2541,7 +2521,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>SQL</t>
@@ -2594,7 +2573,6 @@
           <t>SYNC</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>JSON</t>
@@ -5220,6 +5198,552 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="24" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="40" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="23" customWidth="1" min="21" max="21"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="17" customWidth="1" min="25" max="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>TrainingID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Trainers</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Trainees</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>TargetAudience</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>EstimatedDuration</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>PlannedStartDate</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>PlannedEndDate</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>DeliveryMethod</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>RelatedComponents</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>RelatedProcesses</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>CompletionCriteria</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>FeedbackScore</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>NextActions</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>ActualStartDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TRN-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Architecture microservices</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Formation sur les principes et bonnes pratiques des microservices</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Haute</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Planifié</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Architecte Lead</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expert Architecture</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Équipe développement</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Développeur</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Connaissance Java/Spring</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Slides, Labs pratiques</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Présentiel</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Salle formation A</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Formation critique pour nouveau projet</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>UserService, OrderService</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Passage commande</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Quiz + Projet pratique</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Programmer sessions pratiques</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRN-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sécurité API REST</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Formation sur la sécurisation des APIs REST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sécurité</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>En cours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Expert Sécurité</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Développeurs Backend</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Développeur</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Connaissance APIs REST</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Documentation OWASP</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Virtuel</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>60</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Formation obligatoire avant MEP</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>AuthService, GatewayAPI</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Authentification user</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Audit sécurité réussi</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Tests sécurité sur APIs</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Champ</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Description/Valeurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Feuille principale de suivi des formations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TrainingID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Identifiant unique (format: TRN-XXX)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Valeurs: Planifié, En cours, Terminé, Reporté, Annulé</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valeurs: Critique, Haute, Moyenne, Basse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valeurs: Technique, Fonctionnel, Sécurité, Processus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TargetAudience</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valeurs: Développeur, Ops, Business, Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DeliveryMethod</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valeurs: Présentiel, Virtuel, E-learning, Hybride</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pourcentage de 0 à 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FeedbackScore</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Score de 1 à 5 étoiles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5331,8 +5855,6 @@
           <t>Traitement paiement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5343,8 +5865,6 @@
           <t>Demande support</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5355,88 +5875,62 @@
           <t>Navigation catalogue</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Passage commande</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mise à jour catalogue</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Création ticket</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Génération facture</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>Authentification user</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Calcul coût stock</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Vérification commande</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Notification facturation</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/petstore_archi_enhanced.xlsx
+++ b/petstore_archi_enhanced.xlsx
@@ -32,6 +32,8 @@
     <sheet name="PatternsAndPrincipes" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="Training" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="Training_Doc" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Suivi" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Suivi_Doc" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5473,13 +5475,11 @@
           <t>Quiz + Projet pratique</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
           <t>Programmer sessions pratiques</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5588,7 +5588,6 @@
           <t>Audit sécurité réussi</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
           <t>Tests sécurité sur APIs</t>
@@ -5744,6 +5743,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="31" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="36" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="23" customWidth="1" min="20" max="20"/>
+    <col width="24" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>SuiviID</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Instructors</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TargetTeam</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>TargetAudience</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>EstimatedDuration</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>PlannedStartDate</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>PlannedEndDate</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>DeliveryMethod</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>RelatedComponents</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>RelatedProcesses</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>CompletionCriteria</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>FeedbackScore</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>NextActions</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>ActualStartDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SUI-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Architecture microservices</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Instruction sur les principes et bonnes pratiques des microservices</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Haute</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Planifié</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Architecte Lead</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expert Architecture</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Équipe développement</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Développeur</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Connaissance Java/Spring</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Documentation, Labs pratiques</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Présentiel</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Salle formation A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Sujet critique pour nouveau projet</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>UserService, OrderService</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Passage commande</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Quiz + Projet pratique</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Programmer sessions pratiques</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SUI-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sécurité API REST</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Instruction sur la sécurisation des APIs REST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sécurité</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>En cours</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RSSI</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Expert Sécurité</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Développeurs Backend</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Développeur</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Connaissance APIs REST</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Documentation OWASP</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Virtuel</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Sujet obligatoire avant MEP</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>AuthService, GatewayAPI</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Authentification user</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Audit sécurité réussi</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Tests sécurité sur APIs</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Champ</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Description/Valeurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Suivi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Feuille principale de suivi des sujets à instruire</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SuiviID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Identifiant unique (format: SUI-XXX)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Valeurs: Planifié, En cours, Terminé, Reporté, Annulé</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valeurs: Critique, Haute, Moyenne, Basse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valeurs: Technique, Fonctionnel, Sécurité, Processus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TargetAudience</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valeurs: Développeur, Ops, Business, Manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DeliveryMethod</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valeurs: Présentiel, Virtuel, E-learning, Hybride</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FeedbackScore</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Score de 1 à 5 étoiles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
